--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_Auto_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_Auto_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.4348866587444911</v>
+        <v>0.4349759063693696</v>
       </c>
       <c r="C2">
-        <v>0.6103766153312844</v>
+        <v>0.6084958318088399</v>
       </c>
       <c r="D2">
-        <v>0.6957087287868922</v>
+        <v>0.6948499821685598</v>
       </c>
       <c r="E2">
-        <v>0.7509309400976281</v>
+        <v>0.7483408004336237</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.4499494235131434</v>
+        <v>0.4495895168240502</v>
       </c>
       <c r="C3">
-        <v>0.6213323702636014</v>
+        <v>0.6202535768303969</v>
       </c>
       <c r="D3">
-        <v>0.7026305433955545</v>
+        <v>0.7010362124351743</v>
       </c>
       <c r="E3">
-        <v>0.7543129879167619</v>
+        <v>0.7522648609778715</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.4136082223207384</v>
+        <v>0.4126039193304918</v>
       </c>
       <c r="C4">
-        <v>0.5943080591960613</v>
+        <v>0.5920925721075019</v>
       </c>
       <c r="D4">
-        <v>0.6881809738707573</v>
+        <v>0.6867376105788219</v>
       </c>
       <c r="E4">
-        <v>0.7447152770236576</v>
+        <v>0.7427419605067365</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.4739640050070102</v>
+        <v>0.4740925553094573</v>
       </c>
       <c r="C5">
-        <v>0.6418449110788239</v>
+        <v>0.6404928724557114</v>
       </c>
       <c r="D5">
-        <v>0.705642818471615</v>
+        <v>0.7046736107485284</v>
       </c>
       <c r="E5">
-        <v>0.7614751886638701</v>
+        <v>0.7596649851233738</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.4691129964378711</v>
+        <v>0.4692799780971428</v>
       </c>
       <c r="C6">
-        <v>0.6378486382047766</v>
+        <v>0.6363875332568553</v>
       </c>
       <c r="D6">
-        <v>0.7041570113012549</v>
+        <v>0.7027173425921137</v>
       </c>
       <c r="E6">
-        <v>0.7600297680884153</v>
+        <v>0.7583094459532475</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.4811664850391677</v>
+        <v>0.481179764654688</v>
       </c>
       <c r="C7">
-        <v>0.6454892669017163</v>
+        <v>0.644483405237085</v>
       </c>
       <c r="D7">
-        <v>0.7141992649612542</v>
+        <v>0.7130282815819784</v>
       </c>
       <c r="E7">
-        <v>0.7620948260687492</v>
+        <v>0.7601619967263648</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.4171460158844117</v>
+        <v>0.4171685643628851</v>
       </c>
       <c r="C8">
-        <v>0.5903715414359439</v>
+        <v>0.5876864638500461</v>
       </c>
       <c r="D8">
-        <v>0.6873361800777542</v>
+        <v>0.6848147166973333</v>
       </c>
       <c r="E8">
-        <v>0.7410825976545782</v>
+        <v>0.7391238751082457</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.4754383681321449</v>
+        <v>0.4756995253731762</v>
       </c>
       <c r="C9">
-        <v>0.640728236659171</v>
+        <v>0.63951235732726</v>
       </c>
       <c r="D9">
-        <v>0.7113311117537741</v>
+        <v>0.7103386006351842</v>
       </c>
       <c r="E9">
-        <v>0.7601738797728128</v>
+        <v>0.7585389402505501</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.484751927323666</v>
+        <v>0.4850680614742685</v>
       </c>
       <c r="C10">
-        <v>0.6464282645344936</v>
+        <v>0.645054067969026</v>
       </c>
       <c r="D10">
-        <v>0.7143512953340395</v>
+        <v>0.7119964603128214</v>
       </c>
       <c r="E10">
-        <v>0.7603405730119269</v>
+        <v>0.7585068958190951</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.484298495464323</v>
+        <v>0.4846872260551944</v>
       </c>
       <c r="C11">
-        <v>0.6469853134626079</v>
+        <v>0.6454288995183227</v>
       </c>
       <c r="D11">
-        <v>0.7132767798815473</v>
+        <v>0.7126442726389244</v>
       </c>
       <c r="E11">
-        <v>0.7615851235903913</v>
+        <v>0.7591333756474891</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.4753590232847521</v>
+        <v>0.4751725270085909</v>
       </c>
       <c r="C12">
-        <v>0.6371532551275879</v>
+        <v>0.6358278061312898</v>
       </c>
       <c r="D12">
-        <v>0.7081339625048917</v>
+        <v>0.7063020607180248</v>
       </c>
       <c r="E12">
-        <v>0.7549024546217092</v>
+        <v>0.7528757606733335</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.483918062794079</v>
+        <v>0.4840699376551185</v>
       </c>
       <c r="C13">
-        <v>0.645145546732202</v>
+        <v>0.6439606504256168</v>
       </c>
       <c r="D13">
-        <v>0.7133794941132968</v>
+        <v>0.7111449616502787</v>
       </c>
       <c r="E13">
-        <v>0.7597858671778426</v>
+        <v>0.7577073778010187</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_Auto_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_Auto_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.4349759063693696</v>
+        <v>0.4427977997158401</v>
       </c>
       <c r="C2">
-        <v>0.6084958318088399</v>
+        <v>0.6176863218124681</v>
       </c>
       <c r="D2">
-        <v>0.6948499821685598</v>
+        <v>0.701551440642474</v>
       </c>
       <c r="E2">
-        <v>0.7483408004336237</v>
+        <v>0.7524358076969213</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.4495895168240502</v>
+        <v>0.4579252394377268</v>
       </c>
       <c r="C3">
-        <v>0.6202535768303969</v>
+        <v>0.6298513683933809</v>
       </c>
       <c r="D3">
-        <v>0.7010362124351743</v>
+        <v>0.7078925321183754</v>
       </c>
       <c r="E3">
-        <v>0.7522648609778715</v>
+        <v>0.7564170359425745</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.4126039193304918</v>
+        <v>0.419720720517589</v>
       </c>
       <c r="C4">
-        <v>0.5920925721075019</v>
+        <v>0.6008184859805357</v>
       </c>
       <c r="D4">
-        <v>0.6867376105788219</v>
+        <v>0.6933055670541942</v>
       </c>
       <c r="E4">
-        <v>0.7427419605067365</v>
+        <v>0.7467924631479942</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.4740925553094573</v>
+        <v>0.4832906298672929</v>
       </c>
       <c r="C5">
-        <v>0.6404928724557114</v>
+        <v>0.6507913071018955</v>
       </c>
       <c r="D5">
-        <v>0.7046736107485284</v>
+        <v>0.7117190287704004</v>
       </c>
       <c r="E5">
-        <v>0.7596649851233738</v>
+        <v>0.763918153379728</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.4692799780971428</v>
+        <v>0.4783105745515474</v>
       </c>
       <c r="C6">
-        <v>0.6363875332568553</v>
+        <v>0.6465461535710778</v>
       </c>
       <c r="D6">
-        <v>0.7027173425921137</v>
+        <v>0.709718135770374</v>
       </c>
       <c r="E6">
-        <v>0.7583094459532475</v>
+        <v>0.7625457610805318</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.481179764654688</v>
+        <v>0.4906483264618737</v>
       </c>
       <c r="C7">
-        <v>0.644483405237085</v>
+        <v>0.6549461698890082</v>
       </c>
       <c r="D7">
-        <v>0.7130282815819784</v>
+        <v>0.7201921729891058</v>
       </c>
       <c r="E7">
-        <v>0.7601619967263648</v>
+        <v>0.7644317724559087</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.4171685643628851</v>
+        <v>0.4243618638141485</v>
       </c>
       <c r="C8">
-        <v>0.5876864638500461</v>
+        <v>0.5961646260276713</v>
       </c>
       <c r="D8">
-        <v>0.6848147166973333</v>
+        <v>0.6911889526972824</v>
       </c>
       <c r="E8">
-        <v>0.7391238751082457</v>
+        <v>0.7431321011672083</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.4756995253731762</v>
+        <v>0.4849542988768999</v>
       </c>
       <c r="C9">
-        <v>0.63951235732726</v>
+        <v>0.6497804739386871</v>
       </c>
       <c r="D9">
-        <v>0.7103386006351842</v>
+        <v>0.7174256421780868</v>
       </c>
       <c r="E9">
-        <v>0.7585389402505501</v>
+        <v>0.7627814978018569</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.4850680614742685</v>
+        <v>0.4948320011300388</v>
       </c>
       <c r="C10">
-        <v>0.645054067969026</v>
+        <v>0.6557084768085584</v>
       </c>
       <c r="D10">
-        <v>0.7119964603128214</v>
+        <v>0.7192211507500265</v>
       </c>
       <c r="E10">
-        <v>0.7585068958190951</v>
+        <v>0.7627957419852761</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.4846872260551944</v>
+        <v>0.4944173734453672</v>
       </c>
       <c r="C11">
-        <v>0.6454288995183227</v>
+        <v>0.6560590397357804</v>
       </c>
       <c r="D11">
-        <v>0.7126442726389244</v>
+        <v>0.7198608049094366</v>
       </c>
       <c r="E11">
-        <v>0.7591333756474891</v>
+        <v>0.7634202320927728</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.4751725270085909</v>
+        <v>0.4849535997546612</v>
       </c>
       <c r="C12">
-        <v>0.6358278061312898</v>
+        <v>0.6464965173239271</v>
       </c>
       <c r="D12">
-        <v>0.7063020607180248</v>
+        <v>0.7135288818346025</v>
       </c>
       <c r="E12">
-        <v>0.7528757606733335</v>
+        <v>0.7571573853816395</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.4840699376551185</v>
+        <v>0.4938201023773014</v>
       </c>
       <c r="C13">
-        <v>0.6439606504256168</v>
+        <v>0.6546031863939528</v>
       </c>
       <c r="D13">
-        <v>0.7111449616502787</v>
+        <v>0.7183637077962255</v>
       </c>
       <c r="E13">
-        <v>0.7577073778010187</v>
+        <v>0.7619929502133752</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_Auto_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_Auto_Fiets.xlsx
@@ -411,7 +411,7 @@
         <v>0.6298513683933809</v>
       </c>
       <c r="D3">
-        <v>0.7078925321183754</v>
+        <v>0.7078925321183753</v>
       </c>
       <c r="E3">
         <v>0.7564170359425745</v>
@@ -422,13 +422,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.419720720517589</v>
+        <v>0.4197207205175891</v>
       </c>
       <c r="C4">
         <v>0.6008184859805357</v>
       </c>
       <c r="D4">
-        <v>0.6933055670541942</v>
+        <v>0.693305567054194</v>
       </c>
       <c r="E4">
         <v>0.7467924631479942</v>
@@ -513,7 +513,7 @@
         <v>0.6497804739386871</v>
       </c>
       <c r="D9">
-        <v>0.7174256421780868</v>
+        <v>0.7174256421780867</v>
       </c>
       <c r="E9">
         <v>0.7627814978018569</v>
@@ -564,10 +564,10 @@
         <v>0.6464965173239271</v>
       </c>
       <c r="D12">
-        <v>0.7135288818346025</v>
+        <v>0.7135288818346024</v>
       </c>
       <c r="E12">
-        <v>0.7571573853816395</v>
+        <v>0.7571573853816393</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -581,7 +581,7 @@
         <v>0.6546031863939528</v>
       </c>
       <c r="D13">
-        <v>0.7183637077962255</v>
+        <v>0.7183637077962254</v>
       </c>
       <c r="E13">
         <v>0.7619929502133752</v>
